--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1500578.953383876</v>
+        <v>1565178.615876598</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.683076072</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6839741.278842926</v>
+        <v>7289808.354455355</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>399.4258519807223</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -668,16 +670,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>35.82015822408147</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -865,22 +867,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>55.3111813206344</v>
+        <v>181.5314079874491</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2553066834602</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>343.5301240945844</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>22.81020360491906</v>
+        <v>67.45468936580265</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>365.2311941968098</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>59.15004043304364</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>111.6667192778966</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>201.2038799788126</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>17.83771408212542</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>214.067905194474</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1579,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W13" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1610,19 +1612,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>202.7747693248359</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.465566047739</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1664,7 +1666,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1768,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429432</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>77.3404072963411</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2053,19 +2055,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>106.2300378256872</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>186.810132212935</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2141,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2479,19 +2481,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>152.0898487279629</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>223.2003349611181</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>117.1585426144798</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2950,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>123.0673923170405</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>135.5984076109084</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.95896052973114</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>62.14896798179272</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>129.551986677715</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3740,10 +3742,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>260.4481810953267</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>292.3236405495159</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3907,13 +3909,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.51507839812629</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3946,13 +3948,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>72.40112691475069</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3977,10 +3979,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726215</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>147.7350769921021</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>103.0767555432928</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4147,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.8090391299105</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1616.479056928882</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.018600382698</v>
+        <v>965.1452933471885</v>
       </c>
       <c r="D2" t="n">
-        <v>789.7259795676982</v>
+        <v>541.8526725321888</v>
       </c>
       <c r="E2" t="n">
-        <v>363.7490397155557</v>
+        <v>115.8757326800463</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4331,49 +4333,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>549.9383681074144</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1633.583883184714</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y2" t="n">
-        <v>1632.287017180008</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>323.6423572907505</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L3" t="n">
-        <v>669.8354755761777</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M3" t="n">
-        <v>669.8354755761777</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.1818057320246</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>626.1818057320246</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>626.1818057320246</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
         <v>626.1818057320246</v>
@@ -4486,19 +4488,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4513,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2122.002759027697</v>
+        <v>1824.372533095504</v>
       </c>
       <c r="U4" t="n">
-        <v>1841.818310528001</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="V4" t="n">
-        <v>1560.10684313603</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="W4" t="n">
-        <v>1285.254439308543</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X4" t="n">
-        <v>1042.690542754348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.3477744440902</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.099408463506</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1229.54347914431</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>840.6667190778094</v>
+        <v>785.993590980594</v>
       </c>
       <c r="C7" t="n">
-        <v>668.6941559567254</v>
+        <v>614.02102785951</v>
       </c>
       <c r="D7" t="n">
-        <v>505.3773830834961</v>
+        <v>450.7042549862807</v>
       </c>
       <c r="E7" t="n">
-        <v>339.1691772363496</v>
+        <v>284.4960491391342</v>
       </c>
       <c r="F7" t="n">
-        <v>167.30740301091</v>
+        <v>112.6342749136947</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4744,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1774.591756481815</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1774.591756481815</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1499.739352654328</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X7" t="n">
-        <v>1257.175456100133</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="Y7" t="n">
-        <v>1030.832687789875</v>
+        <v>976.1595596926597</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>891.2873795073754</v>
+        <v>883.6383251666246</v>
       </c>
       <c r="C8" t="n">
-        <v>868.4270535610796</v>
+        <v>456.7375951799247</v>
       </c>
       <c r="D8" t="n">
-        <v>849.1748367864839</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>827.2383009747455</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>402.1141191641457</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4841,13 +4843,13 @@
         <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1724.152608635864</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1312.432609803611</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y8" t="n">
-        <v>907.0953397585014</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>738.9277078106726</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="C10" t="n">
-        <v>738.9277078106726</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1330418734033</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E10" t="n">
-        <v>459.9248360262568</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1851.539962578669</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>1571.355514078974</v>
       </c>
       <c r="V10" t="n">
-        <v>1482.686776502612</v>
+        <v>1289.644046687003</v>
       </c>
       <c r="W10" t="n">
-        <v>1207.834372675125</v>
+        <v>1014.791642859516</v>
       </c>
       <c r="X10" t="n">
-        <v>965.2704761209305</v>
+        <v>772.2277463053208</v>
       </c>
       <c r="Y10" t="n">
-        <v>738.9277078106726</v>
+        <v>545.8849779950629</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1818.891387230011</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1391.990657243311</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>968.6980364283111</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>542.7210965761686</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>117.5969147655688</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>99.57902175332094</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>344.9183781227503</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>1060.426686098249</v>
       </c>
       <c r="L11" t="n">
-        <v>1142.793917289187</v>
+        <v>1990.051733717526</v>
       </c>
       <c r="M11" t="n">
-        <v>1943.23552968699</v>
+        <v>2994.337835136584</v>
       </c>
       <c r="N11" t="n">
-        <v>2743.677142084793</v>
+        <v>2994.337835136584</v>
       </c>
       <c r="O11" t="n">
-        <v>2778.022045335424</v>
+        <v>3839.482485287396</v>
       </c>
       <c r="P11" t="n">
-        <v>2778.022045335424</v>
+        <v>4547.761764445324</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757381</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353793</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>2650.459750353793</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>2650.459750353793</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>2238.739751521541</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2238.739751521541</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>926.8645663447228</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>926.8645663447228</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="M12" t="n">
-        <v>926.8645663447228</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="N12" t="n">
-        <v>926.8645663447228</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="O12" t="n">
-        <v>926.8645663447228</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899945</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267157</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T13" t="n">
-        <v>2001.75583013582</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U13" t="n">
-        <v>2001.75583013582</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V13" t="n">
-        <v>2001.75583013582</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>1806.935906597548</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.372010043353</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1121.530061612108</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C14" t="n">
-        <v>694.629331625408</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D14" t="n">
-        <v>694.629331625408</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E14" t="n">
-        <v>694.629331625408</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F14" t="n">
-        <v>269.5051498148082</v>
+        <v>728.1185992569547</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679215</v>
+        <v>323.7795368464033</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>213.8119697868614</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679215</v>
+        <v>929.3202777623604</v>
       </c>
       <c r="L14" t="n">
-        <v>832.7826876461991</v>
+        <v>1858.945325381637</v>
       </c>
       <c r="M14" t="n">
-        <v>1633.224300044002</v>
+        <v>2863.231426800695</v>
       </c>
       <c r="N14" t="n">
-        <v>2433.665912441805</v>
+        <v>3839.482485287396</v>
       </c>
       <c r="O14" t="n">
-        <v>3234.107524839607</v>
+        <v>3839.482485287396</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445324</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U14" t="n">
-        <v>2754.827044480653</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V14" t="n">
-        <v>2754.827044480653</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W14" t="n">
-        <v>2358.435694781</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X14" t="n">
-        <v>1946.715695948747</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y14" t="n">
-        <v>1541.378425903638</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>272.4865562816963</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.928168679499</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="N15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.4200598011171</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C16" t="n">
-        <v>810.4474966800331</v>
+        <v>152.1834473075703</v>
       </c>
       <c r="D16" t="n">
-        <v>647.1307238068038</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E16" t="n">
-        <v>480.9225179596573</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F16" t="n">
-        <v>309.0607437342177</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>142.8037740284498</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S16" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T16" t="n">
-        <v>2198.056564597094</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U16" t="n">
-        <v>2198.056564597094</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1916.345097205123</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W16" t="n">
-        <v>1641.492693377636</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X16" t="n">
-        <v>1398.928796823441</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y16" t="n">
-        <v>1172.586028513183</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,49 +5518,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>195.4640539534674</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5594,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1429.986740661465</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>684.0970829842502</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>512.1245198631661</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>512.1245198631661</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>512.1245198631661</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W19" t="n">
-        <v>1153.003747848703</v>
+        <v>1790.689676197778</v>
       </c>
       <c r="X19" t="n">
-        <v>910.4398512945081</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>684.0970829842502</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>599.7631605785773</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C25" t="n">
-        <v>427.7905974574933</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D25" t="n">
-        <v>427.7905974574933</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E25" t="n">
-        <v>427.7905974574933</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F25" t="n">
-        <v>255.9288232320537</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y25" t="n">
-        <v>789.9291292906429</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6306,22 +6308,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3611.022155777737</v>
+        <v>3774.338928650965</v>
       </c>
       <c r="C28" t="n">
-        <v>3439.049592656653</v>
+        <v>3602.366365529881</v>
       </c>
       <c r="D28" t="n">
-        <v>3439.049592656653</v>
+        <v>3439.049592656652</v>
       </c>
       <c r="E28" t="n">
-        <v>3272.841386809506</v>
+        <v>3272.841386809505</v>
       </c>
       <c r="F28" t="n">
-        <v>3100.979612584067</v>
+        <v>3100.979612584066</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T28" t="n">
-        <v>4826.658660573714</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U28" t="n">
-        <v>4826.658660573714</v>
+        <v>4989.975433446942</v>
       </c>
       <c r="V28" t="n">
-        <v>4544.947193181742</v>
+        <v>4708.26396605497</v>
       </c>
       <c r="W28" t="n">
-        <v>4270.094789354255</v>
+        <v>4433.411562227483</v>
       </c>
       <c r="X28" t="n">
-        <v>4027.53089280006</v>
+        <v>4190.847665673288</v>
       </c>
       <c r="Y28" t="n">
-        <v>3801.188124489802</v>
+        <v>3964.504897363031</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6540,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3874.10749691069</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3702.134933789606</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3538.818160916377</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3372.60995506923</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3200.748180843791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4945.000622810562</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4945.000622810562</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4808.032534314695</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4533.180130487208</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4290.616233933013</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>4064.273465622755</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,34 +6940,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7017,25 +7019,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M36" t="n">
-        <v>739.6560874287652</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.971033901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>844.5735305570797</v>
+        <v>3278.556980224821</v>
       </c>
       <c r="C37" t="n">
-        <v>672.6009674359957</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="D37" t="n">
-        <v>509.2841945627664</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="E37" t="n">
-        <v>509.2841945627664</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F37" t="n">
-        <v>509.2841945627664</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G37" t="n">
-        <v>343.0272248569985</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H37" t="n">
-        <v>199.2309563651529</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>5017.717281294594</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U37" t="n">
-        <v>1785.357631525569</v>
+        <v>4494.193485020798</v>
       </c>
       <c r="V37" t="n">
-        <v>1503.646164133598</v>
+        <v>4212.482017628827</v>
       </c>
       <c r="W37" t="n">
-        <v>1503.646164133598</v>
+        <v>3937.62961380134</v>
       </c>
       <c r="X37" t="n">
-        <v>1261.082267579403</v>
+        <v>3695.065717247145</v>
       </c>
       <c r="Y37" t="n">
-        <v>1034.739499269145</v>
+        <v>3468.722948936887</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>195.4640539534684</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>195.4640539534684</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572745</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,19 +7262,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>739.6560874287652</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1172.548160041972</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C40" t="n">
-        <v>1000.575596920888</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D40" t="n">
-        <v>837.258824047659</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E40" t="n">
-        <v>671.0506182005125</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>499.1888439750729</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>332.9318742693051</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7366,16 +7368,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1589.056897064296</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1589.056897064296</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X40" t="n">
-        <v>1589.056897064296</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y40" t="n">
-        <v>1362.714128754038</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1476.73062148886</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C41" t="n">
-        <v>1476.73062148886</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D41" t="n">
-        <v>1213.6516506855</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E41" t="n">
-        <v>787.674710833357</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F41" t="n">
-        <v>362.5505290227573</v>
+        <v>728.1185992569547</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1177.138820539818</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M41" t="n">
-        <v>1977.580432937621</v>
+        <v>2018.086776649883</v>
       </c>
       <c r="N41" t="n">
-        <v>2778.022045335424</v>
+        <v>2994.337835136584</v>
       </c>
       <c r="O41" t="n">
-        <v>2778.022045335424</v>
+        <v>3839.482485287396</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335424</v>
+        <v>4547.761764445324</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U41" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V41" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W41" t="n">
-        <v>1896.57898578039</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X41" t="n">
-        <v>1896.57898578039</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y41" t="n">
-        <v>1896.57898578039</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679215</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="M42" t="n">
-        <v>865.123762894595</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="N42" t="n">
-        <v>1409.224304214523</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="O42" t="n">
-        <v>1409.224304214523</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P42" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>665.9482605979759</v>
+        <v>847.6798067024502</v>
       </c>
       <c r="C43" t="n">
-        <v>493.9756974768919</v>
+        <v>675.7072435813661</v>
       </c>
       <c r="D43" t="n">
-        <v>330.6589246036626</v>
+        <v>512.3904707081368</v>
       </c>
       <c r="E43" t="n">
-        <v>164.4507187565162</v>
+        <v>346.1822648609904</v>
       </c>
       <c r="F43" t="n">
-        <v>164.4507187565162</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4507187565162</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S43" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T43" t="n">
-        <v>1954.717216822994</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="U43" t="n">
-        <v>1881.584765393952</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="V43" t="n">
-        <v>1599.873298001981</v>
+        <v>1781.604844106456</v>
       </c>
       <c r="W43" t="n">
-        <v>1325.020894174494</v>
+        <v>1506.752440278969</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.456997620299</v>
+        <v>1264.188543724774</v>
       </c>
       <c r="Y43" t="n">
-        <v>856.1142293100415</v>
+        <v>1037.845775414516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>915.7832721595344</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>915.7832721595344</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>915.7832721595344</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679215</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L44" t="n">
-        <v>865.123762894595</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>1665.565375292398</v>
+        <v>1900.530441767981</v>
       </c>
       <c r="N44" t="n">
-        <v>2466.006987690201</v>
+        <v>2876.781500254682</v>
       </c>
       <c r="O44" t="n">
-        <v>3234.107524839607</v>
+        <v>3721.926150405494</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563422</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2292.970335480043</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>1896.57898578039</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1484.858986948137</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1335.631636451064</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K45" t="n">
-        <v>655.1670770651317</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="L45" t="n">
-        <v>655.1670770651317</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M45" t="n">
-        <v>1455.608689462935</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N45" t="n">
-        <v>1455.608689462935</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>566.0689034426075</v>
+        <v>1124.059229422213</v>
       </c>
       <c r="C46" t="n">
-        <v>566.0689034426075</v>
+        <v>952.0866663011286</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7521305693782</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>236.5439247222317</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>64.68215049679215</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T46" t="n">
-        <v>1784.582169342129</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="U46" t="n">
-        <v>1504.397720842433</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.686253450462</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="W46" t="n">
-        <v>947.8338496229746</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="X46" t="n">
-        <v>705.2699530687797</v>
+        <v>1540.567966444536</v>
       </c>
       <c r="Y46" t="n">
-        <v>566.0689034426075</v>
+        <v>1314.225198134278</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7988,10 +7990,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>181.5591018660332</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258255</v>
@@ -8000,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L3" t="n">
-        <v>372.2051051843581</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>462.4589018454972</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,16 +8306,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>571.3293238908518</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>276.7345385196876</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>72.08278082130838</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8766,13 +8768,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8781,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203086</v>
       </c>
       <c r="P12" t="n">
-        <v>509.0028996591719</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>144.3038230288908</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>814.1711708663672</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9009,13 +9011,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>232.4185269010014</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9164,7 +9166,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843436</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9240,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9252,7 +9254,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>507.2052537942219</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>129.135014084331</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,25 +9956,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10188,28 +10190,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>509.7471451685728</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10665,19 +10667,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M36" t="n">
-        <v>666.8880674041833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10686,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>123.5223236751217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>702.6160445827084</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>666.8880674041833</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>439.2699839149737</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>885.813146716097</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11142,22 +11144,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>570.9395345973069</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203086</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>194.3202945097499</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>813.250087789768</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>207.6147756784521</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>445.1527903427953</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4579577043204</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.64841005133917</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23467,16 +23469,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W13" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>197.5209024616099</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>73.42412869296655</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>65.01789851058605</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>165.8738419635249</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>53.32812537571792</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24145,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>47.1854451728326</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.50455128074728</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24412,25 +24414,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>16.93792262753482</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>123.7474116818792</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24847,16 +24849,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>19.29091348988663</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>143.295945107143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>2.81192204739564</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>126.1153410431523</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>12.8063191292122</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>158.611513511523</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>107.97203123693</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>167.6280780850589</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>204.9814770999481</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>107.9720312369303</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>253.5488203525564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.60684960120417</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.27030149724487</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469624.2866199625</v>
+        <v>623659.2709446452</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469624.2866199625</v>
+        <v>623659.2709446452</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633345.6168078196</v>
+        <v>633345.6168078197</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633345.6168078196</v>
+        <v>633345.6168078198</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633345.6168078197</v>
+        <v>633345.6168078198</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>633345.6168078198</v>
+        <v>633345.6168078197</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633345.6168078198</v>
+        <v>633345.6168078197</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469624.2866199626</v>
+        <v>623659.2709446452</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469624.2866199626</v>
+        <v>623659.2709446449</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>422270.9343080932</v>
+      </c>
+      <c r="C2" t="n">
         <v>422270.9343080931</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>422270.9343080932</v>
       </c>
-      <c r="D2" t="n">
-        <v>422270.934308093</v>
-      </c>
       <c r="E2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519659</v>
       </c>
       <c r="F2" t="n">
-        <v>302152.8212019907</v>
+        <v>401240.9763519658</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="H2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.042274649</v>
       </c>
       <c r="I2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="J2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="K2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="L2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="M2" t="n">
         <v>407472.0422746491</v>
@@ -26350,10 +26352,10 @@
         <v>407472.042274649</v>
       </c>
       <c r="O2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="P2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519657</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481259</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056397</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173998.4022791779</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
         <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>173998.4022791779</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980775</v>
       </c>
       <c r="F4" t="n">
-        <v>43020.44595046938</v>
+        <v>57174.45239980775</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="J4" t="n">
         <v>58064.51385187964</v>
@@ -26445,19 +26447,19 @@
         <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="O4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980776</v>
       </c>
       <c r="P4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980776</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.4781080325</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5578.452423250128</v>
+        <v>-5578.452423250041</v>
       </c>
       <c r="C6" t="n">
-        <v>180826.2809914872</v>
+        <v>180826.2809914871</v>
       </c>
       <c r="D6" t="n">
-        <v>180826.280991487</v>
+        <v>180826.2809914873</v>
       </c>
       <c r="E6" t="n">
-        <v>134642.9897204972</v>
+        <v>60575.75822756451</v>
       </c>
       <c r="F6" t="n">
-        <v>209973.9408739593</v>
+        <v>268008.0458441256</v>
       </c>
       <c r="G6" t="n">
-        <v>142767.0664227991</v>
+        <v>264031.8441508586</v>
       </c>
       <c r="H6" t="n">
         <v>271657.4662343398</v>
@@ -26543,25 +26545,25 @@
         <v>271657.4662343396</v>
       </c>
       <c r="J6" t="n">
-        <v>126123.7962995232</v>
+        <v>126123.7962995233</v>
       </c>
       <c r="K6" t="n">
-        <v>271657.4662343397</v>
+        <v>271657.4662343399</v>
       </c>
       <c r="L6" t="n">
+        <v>271657.4662343399</v>
+      </c>
+      <c r="M6" t="n">
+        <v>98526.97502870008</v>
+      </c>
+      <c r="N6" t="n">
         <v>271657.4662343398</v>
       </c>
-      <c r="M6" t="n">
-        <v>208783.5292689659</v>
-      </c>
-      <c r="N6" t="n">
-        <v>271657.4662343397</v>
-      </c>
       <c r="O6" t="n">
-        <v>209973.9408739594</v>
+        <v>268008.0458441255</v>
       </c>
       <c r="P6" t="n">
-        <v>209973.9408739594</v>
+        <v>268008.0458441255</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854799</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854799</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>23.2058707061106</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>385.0527817684123</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>185.5947729757246</v>
+        <v>59.37454630890988</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.3945739651546</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27679,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>57.75377325007412</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>141.7841964037911</v>
+        <v>97.13971064290753</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>53.82850041003991</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>341.1456313534022</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27913,7 +27915,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>50.01688586660038</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>39.70207431754636</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>144.2794790315872</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155941</v>
@@ -34720,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L3" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>533.7539620806206</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>247.3145790341011</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>34.69182146528428</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>258.2738438980864</v>
       </c>
       <c r="P12" t="n">
-        <v>487.2320584543432</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>114.8838635433043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>775.8591284337443</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>209.9034401867719</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>981.7058813107107</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953426</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>485.8622255806802</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>94.1023641895345</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M36" t="n">
-        <v>643.7912868918553</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>94.10236418953517</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>666.851443787899</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>643.7912868918553</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>400.9579414823507</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>848.3818838166652</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>549.5965063837652</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>258.2738438980864</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>156.8890316103181</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>775.859128433744</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>185.2155418451188</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>421.9809006205731</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1565178.615876598</v>
+        <v>1564460.625761739</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.683076072</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7289808.354455355</v>
+        <v>7289808.354455354</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>270.0135262251624</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>35.82015822408147</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>164.5359134685717</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>181.5314079874491</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -898,7 +898,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -910,10 +910,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -949,7 +949,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>71.02759937771827</v>
       </c>
       <c r="Y5" t="n">
-        <v>343.5301240945844</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>67.45468936580265</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1116,13 +1116,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>24.03714390879747</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>365.2311941968098</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1186,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>326.6257644515839</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1305,10 +1305,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>201.2038799788126</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>214.067905194474</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1536,13 +1536,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.38093498862415</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>221.465566047739</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429432</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>241.2965926068036</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -2016,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>12.71862614356353</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2055,7 +2055,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>186.810132212935</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2083,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2143,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026568</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>49.87597792716814</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2478,22 +2478,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>105.0134374522401</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>223.2003349611181</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>50.40484160890336</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>4.378995526348093</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.14896798179272</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>124.33873678981</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3723,7 +3723,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>292.3236405495159</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3900,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>79.47996908723994</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.51507839812629</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726215</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4140,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>103.0767555432928</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>121.2482518332236</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4185,19 +4185,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1392.046023333888</v>
+        <v>379.8103493568968</v>
       </c>
       <c r="C2" t="n">
-        <v>965.1452933471885</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D2" t="n">
-        <v>541.8526725321888</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>115.8757326800463</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4363,19 +4363,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X2" t="n">
-        <v>2217.231657670528</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.894387625418</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="3">
@@ -4412,10 +4412,10 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
         <v>756.3555336978366</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1824.372533095504</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1544.188084595808</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V4" t="n">
-        <v>1544.188084595808</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W4" t="n">
-        <v>1544.188084595808</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1420.451440016515</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>1194.108671706257</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.7353935451185</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>843.8750675988227</v>
+        <v>950.0470931132614</v>
       </c>
       <c r="D5" t="n">
-        <v>824.622850824227</v>
+        <v>930.7948763386657</v>
       </c>
       <c r="E5" t="n">
-        <v>398.6459109720846</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4570,25 +4570,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2152.580309506745</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>1641.263477976562</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X5" t="n">
-        <v>1229.54347914431</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.5433537962446</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>323.6423572907505</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M6" t="n">
-        <v>323.6423572907505</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N6" t="n">
-        <v>323.6423572907505</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O6" t="n">
-        <v>874.3078922751886</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.993590980594</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C7" t="n">
-        <v>614.02102785951</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D7" t="n">
-        <v>450.7042549862807</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>284.4960491391342</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>112.6342749136947</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
         <v>44.49822504924753</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>1615.976723257882</v>
       </c>
       <c r="W7" t="n">
-        <v>1202.502328002918</v>
+        <v>1341.124319430395</v>
       </c>
       <c r="X7" t="n">
-        <v>1202.502328002918</v>
+        <v>1098.5604228762</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.1595596926597</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>883.6383251666246</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>456.7375951799247</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
         <v>87.81719700132894</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>2120.543958335517</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1708.823959503264</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y8" t="n">
-        <v>1303.486689458155</v>
+        <v>145.7376999733464</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>545.8849779950629</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>545.8849779950629</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>382.5682051218336</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>216.3599992746871</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1851.539962578669</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.355514078974</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1289.644046687003</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1014.791642859516</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>772.2277463053208</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>545.8849779950629</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5041,37 +5041,37 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>344.9183781227503</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>1060.426686098249</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1990.051733717526</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M11" t="n">
-        <v>2994.337835136584</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>2994.337835136584</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3839.482485287396</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.761764445324</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949507</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>5003.847243949507</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
         <v>4529.262127278774</v>
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5117,28 +5117,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>936.8757529618963</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>936.8757529618963</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>936.8757529618963</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>1192.566858421002</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
         <v>1908.7645754595</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>850.7928918503127</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>678.8203287292287</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G13" t="n">
         <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387142</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2280.489972292119</v>
+        <v>2258.893068263205</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292119</v>
+        <v>2088.75802078234</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292119</v>
+        <v>1845.41867300824</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292119</v>
+        <v>1565.234224508544</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1283.522757116573</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1283.522757116573</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>1040.958860562378</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>1040.958860562378</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721397</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734697</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919697</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569547</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>323.7795368464033</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>213.8119697868614</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>929.3202777623604</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1858.945325381637</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2863.231426800695</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3839.482485287396</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.482485287396</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>4547.761764445324</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.199469463692</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589942</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890289</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058036</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012927</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>936.8757529618963</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>936.8757529618963</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.1560104286543</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="C16" t="n">
-        <v>152.1834473075703</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>100.0769448789901</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>100.0769448789901</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0769448789901</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0769448789901</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498427</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724327</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>2036.756040366054</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.08104783266</v>
+        <v>1755.044572974083</v>
       </c>
       <c r="W16" t="n">
-        <v>983.2286440051728</v>
+        <v>1480.192169146596</v>
       </c>
       <c r="X16" t="n">
-        <v>740.6647474509779</v>
+        <v>1237.628272592401</v>
       </c>
       <c r="Y16" t="n">
-        <v>514.3219791407199</v>
+        <v>1011.285504282143</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>195.4640539534674</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572744</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991802</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>888.2776948471626</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>716.3051317260786</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>552.9883588528493</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>386.7801530057028</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>214.9183787802632</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5694,31 +5694,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="V19" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="W19" t="n">
-        <v>1790.689676197778</v>
+        <v>1547.350328423681</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1304.786431869486</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>1078.443663559228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076616</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>496.5168264363603</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344085</v>
+        <v>324.5442633152763</v>
       </c>
       <c r="D22" t="n">
-        <v>154.4092158344085</v>
+        <v>324.5442633152763</v>
       </c>
       <c r="E22" t="n">
-        <v>154.4092158344085</v>
+        <v>324.5442633152763</v>
       </c>
       <c r="F22" t="n">
-        <v>154.4092158344085</v>
+        <v>152.6824890898368</v>
       </c>
       <c r="G22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302473</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.337779732033</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232337</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840366</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012879</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586839</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>686.682795148426</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1085.715267670341</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>913.7427045492574</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D25" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6177,22 +6177,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>2002.531292319261</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>2002.531292319261</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1727.678888491774</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>1502.224004692665</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.881236382407</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>528.0267489559496</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M27" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N27" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3774.338928650965</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>3602.366365529881</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>3439.049592656652</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>3272.841386809505</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>3100.979612584066</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291426</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>5115.135670291426</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>4989.975433446942</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>4708.26396605497</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>4433.411562227483</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>4190.847665673288</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>3964.504897363031</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6542,28 +6542,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6788,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>1070.140847647432</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>898.1682845263483</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>734.851511653119</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>568.6433058059725</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>396.7815315805329</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>1260.306816359498</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6946,28 +6946,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7022,22 +7022,22 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3278.556980224821</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="C37" t="n">
-        <v>3106.584417103737</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D37" t="n">
-        <v>3106.584417103737</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E37" t="n">
-        <v>3106.584417103737</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878298</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878298</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>5017.717281294594</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4774.377933520494</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4494.193485020798</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4212.482017628827</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>3937.62961380134</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>3695.065717247145</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>3468.722948936887</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K38" t="n">
-        <v>1125.089101572744</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572744</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991802</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478503</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629315</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7253,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1307.345429672325</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1064.78153311813</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>838.4387648078721</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721397</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734697</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919697</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>728.1185992569547</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
         <v>432.8421946614841</v>
@@ -7411,52 +7411,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
         <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1178.188711671385</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2018.086776649883</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>2994.337835136584</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>3839.482485287396</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445324</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949507</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822648</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.55437886728</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463692</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589942</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890289</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058036</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012927</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7496,16 +7496,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>936.8757529618963</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>936.8757529618963</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>936.8757529618963</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="O42" t="n">
-        <v>1192.566858421002</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
         <v>1908.7645754595</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.6798067024502</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C43" t="n">
-        <v>675.7072435813661</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="D43" t="n">
-        <v>512.3904707081368</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="E43" t="n">
-        <v>346.1822648609904</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="F43" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="G43" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979292</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498427</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>2063.316311498427</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>2063.316311498427</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>1781.604844106456</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>1506.752440278969</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X43" t="n">
-        <v>1264.188543724774</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1037.845775414516</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1900.530441767981</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254682</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405494</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563422</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822648</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.55437886728</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7727,25 +7727,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>555.1378205852488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>555.1378205852488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>555.1378205852488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>555.1378205852488</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
         <v>1908.7645754595</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1124.059229422213</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C46" t="n">
-        <v>952.0866663011286</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D46" t="n">
-        <v>847.9687314089136</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E46" t="n">
-        <v>681.7605255617672</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387142</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979292</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498427</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>2063.316311498427</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.131862998731</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.131862998731</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.131862998731</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X46" t="n">
-        <v>1540.567966444536</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y46" t="n">
-        <v>1314.225198134278</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>300.3028744740158</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -7999,10 +7999,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>459.4832504061476</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N3" t="n">
         <v>577.5708413291358</v>
@@ -8218,19 +8218,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>546.3101998434627</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>108.094208435838</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>372.2051051843582</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>541.7026457419896</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>301.3352940721928</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>180.7888499740228</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>276.7345385196876</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>767.069374108112</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>281.4457336203086</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814831</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>144.3038230288908</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8938,10 +8938,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>772.1208831718561</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>129.8669649843436</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>129.135014084331</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>170.459742225877</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9968,16 +9968,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>509.7471451685728</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10208,13 +10208,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K38" t="n">
-        <v>702.6160445827084</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10901,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10910,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>592.5445971072223</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10925,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>885.813146716097</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>281.4457336203086</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>194.3202945097499</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11375,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>207.6147756784521</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O45" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.64841005133917</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>25.18729219107443</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>73.42412869296655</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402027</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>36.08601140789511</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>151.8757738651466</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>53.32812537571792</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>114.718422081542</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>47.1854451728326</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>65.23940003763302</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24417,19 +24417,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>16.93792262753482</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>114.1895583998068</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.8853134985969</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25323,16 +25323,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.1153410431523</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>45.91410070006314</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>107.97203123693</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>82.20363605725706</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>167.6280780850589</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.9720312369303</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.60684960120417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>21.11005397370357</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623659.2709446452</v>
+        <v>623659.2709446447</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623659.2709446452</v>
+        <v>623659.2709446448</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633345.6168078197</v>
+        <v>633345.6168078198</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633345.6168078198</v>
+        <v>633345.6168078197</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633345.6168078198</v>
+        <v>633345.6168078197</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>623659.2709446452</v>
+        <v>623659.2709446448</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>623659.2709446449</v>
+        <v>623659.2709446448</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>422270.9343080932</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.9343080931</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.934308093</v>
       </c>
       <c r="E2" t="n">
-        <v>401240.9763519659</v>
+        <v>401240.9763519656</v>
       </c>
       <c r="F2" t="n">
-        <v>401240.9763519658</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="G2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="H2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="I2" t="n">
         <v>407472.0422746492</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>407472.042274649</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>407472.042274649</v>
-      </c>
-      <c r="J2" t="n">
-        <v>407472.0422746491</v>
-      </c>
-      <c r="K2" t="n">
-        <v>407472.0422746492</v>
       </c>
       <c r="L2" t="n">
         <v>407472.0422746492</v>
       </c>
       <c r="M2" t="n">
+        <v>407472.0422746492</v>
+      </c>
+      <c r="N2" t="n">
         <v>407472.0422746491</v>
-      </c>
-      <c r="N2" t="n">
-        <v>407472.042274649</v>
       </c>
       <c r="O2" t="n">
         <v>401240.9763519657</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165611</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481259</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056397</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
         <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>57174.45239980775</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="F4" t="n">
-        <v>57174.45239980775</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>57174.45239980776</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="P4" t="n">
-        <v>57174.45239980776</v>
+        <v>57174.45239980773</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5578.452423250041</v>
+        <v>-5578.452423249983</v>
       </c>
       <c r="C6" t="n">
+        <v>180826.2809914872</v>
+      </c>
+      <c r="D6" t="n">
         <v>180826.2809914871</v>
       </c>
-      <c r="D6" t="n">
-        <v>180826.2809914873</v>
-      </c>
       <c r="E6" t="n">
-        <v>60575.75822756451</v>
+        <v>60503.24113116404</v>
       </c>
       <c r="F6" t="n">
-        <v>268008.0458441256</v>
+        <v>267935.5287477251</v>
       </c>
       <c r="G6" t="n">
-        <v>264031.8441508586</v>
+        <v>263980.8134886741</v>
       </c>
       <c r="H6" t="n">
-        <v>271657.4662343398</v>
+        <v>271606.4355721555</v>
       </c>
       <c r="I6" t="n">
-        <v>271657.4662343396</v>
+        <v>271606.4355721556</v>
       </c>
       <c r="J6" t="n">
-        <v>126123.7962995233</v>
+        <v>126072.7656373389</v>
       </c>
       <c r="K6" t="n">
-        <v>271657.4662343399</v>
+        <v>271606.4355721554</v>
       </c>
       <c r="L6" t="n">
-        <v>271657.4662343399</v>
+        <v>271606.4355721556</v>
       </c>
       <c r="M6" t="n">
-        <v>98526.97502870008</v>
+        <v>98475.94436651604</v>
       </c>
       <c r="N6" t="n">
-        <v>271657.4662343398</v>
+        <v>271606.4355721555</v>
       </c>
       <c r="O6" t="n">
-        <v>268008.0458441255</v>
+        <v>267935.528747725</v>
       </c>
       <c r="P6" t="n">
-        <v>268008.0458441255</v>
+        <v>267935.5287477251</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.8221065854799</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.8221065854799</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>152.6181964616704</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>385.0527817684123</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>23.7283955563733</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>59.37454630890988</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>336.5751994662119</v>
       </c>
       <c r="Y5" t="n">
-        <v>57.75377325007412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>97.13971064290753</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>200.0421967183579</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>53.82850041003991</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>74.65813289307465</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>39.70207431754636</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28988,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34719,10 +34719,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>437.0840165728143</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>556.2278131155941</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>519.9318045371609</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>247.3145790341011</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>729.6381112086802</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>258.2738438980864</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>114.8838635433043</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35658,10 +35658,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>734.729923815832</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>981.7058813107107</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>94.10236418953426</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391563</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>94.1023641895345</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711539</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K38" t="n">
-        <v>666.851443787899</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>571.2015688936807</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>848.3818838166652</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>258.2738438980864</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>156.8890316103181</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>185.2155418451188</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O45" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
